--- a/Phase_distribution_80.xlsx
+++ b/Phase_distribution_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,538 +440,4650 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>151.1040080107677</v>
+        <v>-527.2152782642723</v>
       </c>
       <c r="B2" t="n">
-        <v>83.59309111163338</v>
+        <v>-125.0203621774631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>150.6279146188416</v>
+        <v>-521.429513795948</v>
       </c>
       <c r="B3" t="n">
-        <v>83.63105292186822</v>
+        <v>-123.6087124684583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>151.0777627820078</v>
+        <v>-515.7611508198435</v>
       </c>
       <c r="B4" t="n">
-        <v>83.81880800388899</v>
+        <v>-122.227258396607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>150.335355698235</v>
+        <v>-510.2052375262897</v>
       </c>
       <c r="B5" t="n">
-        <v>83.83220527606613</v>
+        <v>-120.8747031518916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>149.6171204470586</v>
+        <v>-504.7568447365242</v>
       </c>
       <c r="B6" t="n">
-        <v>83.71041363788845</v>
+        <v>-119.549761714914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>151.0990846755236</v>
+        <v>-499.4115598548884</v>
       </c>
       <c r="B7" t="n">
-        <v>83.91197481775083</v>
+        <v>-118.2512806170138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>151.1059994343444</v>
+        <v>-494.1649884101259</v>
       </c>
       <c r="B8" t="n">
-        <v>83.9266471300582</v>
+        <v>-116.9781162505407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>151.0716006587348</v>
+        <v>-489.0130672161064</v>
       </c>
       <c r="B9" t="n">
-        <v>83.9420121406003</v>
+        <v>-115.7292106012681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>151.0508560926131</v>
+        <v>-483.9521858659599</v>
       </c>
       <c r="B10" t="n">
-        <v>83.95451765148312</v>
+        <v>-114.5036201284627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-499.0753722583954</v>
+        <v>-478.9787644627111</v>
       </c>
       <c r="B11" t="n">
-        <v>201.5629429068528</v>
+        <v>-113.3004130029063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-450.7132057039753</v>
+        <v>-474.0892345859999</v>
       </c>
       <c r="B12" t="n">
-        <v>213.2477666768679</v>
+        <v>-112.1186643786875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-409.1653962899356</v>
+        <v>-469.2805360800202</v>
       </c>
       <c r="B13" t="n">
-        <v>223.1966215753419</v>
+        <v>-110.9575761797123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-372.184041279258</v>
+        <v>-464.5498103324021</v>
       </c>
       <c r="B14" t="n">
-        <v>231.9839768519623</v>
+        <v>-109.8164024705508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-338.7618431614617</v>
+        <v>-459.8939011982907</v>
       </c>
       <c r="B15" t="n">
-        <v>239.8725729300027</v>
+        <v>-108.6943289320288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-308.5686869532224</v>
+        <v>-455.3102383136131</v>
       </c>
       <c r="B16" t="n">
-        <v>246.9578237528576</v>
+        <v>-107.5906857029701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-280.2919264865087</v>
+        <v>-450.7962735376221</v>
       </c>
       <c r="B17" t="n">
-        <v>253.5599070759974</v>
+        <v>-106.5048111547351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-254.1727236715046</v>
+        <v>-446.3495587534553</v>
       </c>
       <c r="B18" t="n">
-        <v>259.6312873864797</v>
+        <v>-105.4360704959934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-229.363147841884</v>
+        <v>-441.9677764079042</v>
       </c>
       <c r="B19" t="n">
-        <v>265.3758917037875</v>
+        <v>-104.3838629360547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-205.936611234658</v>
+        <v>-437.6487297423037</v>
       </c>
       <c r="B20" t="n">
-        <v>270.7816873018993</v>
+        <v>-103.3476191480563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-183.5329192522754</v>
+        <v>-433.3903292490201</v>
       </c>
       <c r="B21" t="n">
-        <v>275.9358433646748</v>
+        <v>-102.3267978457742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-162.0656126117412</v>
+        <v>-429.1905773043447</v>
       </c>
       <c r="B22" t="n">
-        <v>280.8613637338346</v>
+        <v>-101.3208819456473</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-141.4587203077803</v>
+        <v>-425.0473976439959</v>
       </c>
       <c r="B23" t="n">
-        <v>285.5782762286475</v>
+        <v>-100.3293376348284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-121.4251208754496</v>
+        <v>-420.9592520814517</v>
       </c>
       <c r="B24" t="n">
-        <v>290.1543174998943</v>
+        <v>-99.35176181427448</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-102.1135777124669</v>
+        <v>-416.9242556061133</v>
       </c>
       <c r="B25" t="n">
-        <v>294.5571856956946</v>
+        <v>-98.38767019024556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-83.45386485617759</v>
+        <v>-412.9408277293483</v>
       </c>
       <c r="B26" t="n">
-        <v>298.8044192143151</v>
+        <v>-97.43665301083917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-65.0979924170076</v>
+        <v>-409.0072189369909</v>
       </c>
       <c r="B27" t="n">
-        <v>302.9763545762373</v>
+        <v>-96.49826181755117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-47.28384607199658</v>
+        <v>-405.1221377049069</v>
       </c>
       <c r="B28" t="n">
-        <v>307.0198682381811</v>
+        <v>-95.57215897228394</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-29.8843244664235</v>
+        <v>-401.2839907721184</v>
       </c>
       <c r="B29" t="n">
-        <v>310.9646969377304</v>
+        <v>-94.65793631447411</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-12.81202886634965</v>
+        <v>-397.4914551269212</v>
       </c>
       <c r="B30" t="n">
-        <v>314.8313597264815</v>
+        <v>-93.75525149249279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.986995873910295</v>
+        <v>-393.7431727814738</v>
       </c>
       <c r="B31" t="n">
-        <v>318.632656632122</v>
+        <v>-92.8637551260407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20.39333633751988</v>
+        <v>-390.0379095315025</v>
       </c>
       <c r="B32" t="n">
-        <v>322.3421019472537</v>
+        <v>-91.9831285276781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36.52008244375008</v>
+        <v>-386.374466662136</v>
       </c>
       <c r="B33" t="n">
-        <v>325.9857404773107</v>
+        <v>-91.11306260826177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>52.45697550127349</v>
+        <v>-382.7515262470716</v>
       </c>
       <c r="B34" t="n">
-        <v>329.5842250134124</v>
+        <v>-90.25322112002397</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>68.11447765662194</v>
+        <v>-379.1682172321507</v>
       </c>
       <c r="B35" t="n">
-        <v>333.1176736953568</v>
+        <v>-89.40337494072872</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>83.59230393507471</v>
+        <v>-375.6232245839656</v>
       </c>
       <c r="B36" t="n">
-        <v>336.6088874535884</v>
+        <v>-88.56319062209826</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>98.89717992564246</v>
+        <v>-372.1156172594109</v>
       </c>
       <c r="B37" t="n">
-        <v>340.0596325925951</v>
+        <v>-87.73242676166956</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>113.9446908056653</v>
+        <v>-368.6443910180265</v>
       </c>
       <c r="B38" t="n">
-        <v>343.4511087261334</v>
+        <v>-86.91082550104454</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>128.9047460298738</v>
+        <v>-365.2085978455061</v>
       </c>
       <c r="B39" t="n">
-        <v>346.8218092161575</v>
+        <v>-86.09814316802459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>143.6817498328948</v>
+        <v>-361.8072759418104</v>
       </c>
       <c r="B40" t="n">
-        <v>350.1503634263861</v>
+        <v>-85.29413367085903</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>158.2816073746846</v>
+        <v>-358.4396062278559</v>
       </c>
       <c r="B41" t="n">
-        <v>353.4382603118443</v>
+        <v>-84.49858545100483</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>172.8005275360359</v>
+        <v>-355.104686633125</v>
       </c>
       <c r="B42" t="n">
-        <v>356.7073005553552</v>
+        <v>-83.71126809008018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>187.2058861866692</v>
+        <v>-351.8017020725426</v>
       </c>
       <c r="B43" t="n">
-        <v>359.9502542980133</v>
+        <v>-82.93197244686809</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>201.4126853260562</v>
+        <v>-348.52986864152</v>
       </c>
       <c r="B44" t="n">
-        <v>363.148097101524</v>
+        <v>-82.16049742438815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>215.5461663838373</v>
+        <v>-345.2883476824698</v>
       </c>
       <c r="B45" t="n">
-        <v>366.3291148296422</v>
+        <v>-81.39662968923687</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>229.5957279666718</v>
+        <v>-342.0765335662816</v>
       </c>
       <c r="B46" t="n">
-        <v>369.49100303685</v>
+        <v>-80.64021145167357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>243.4609063697666</v>
+        <v>-338.8936379791529</v>
       </c>
       <c r="B47" t="n">
-        <v>372.6112278728233</v>
+        <v>-79.89104247207308</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>257.3207487499296</v>
+        <v>-335.7389529719785</v>
       </c>
       <c r="B48" t="n">
-        <v>375.7301471611842</v>
+        <v>-79.14894203544895</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>271.0252568830179</v>
+        <v>-332.6118872590706</v>
       </c>
       <c r="B49" t="n">
-        <v>378.8140642453055</v>
+        <v>-78.41375741603764</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>284.6951755763322</v>
+        <v>-329.5116984380163</v>
       </c>
       <c r="B50" t="n">
-        <v>381.8902020926727</v>
+        <v>-77.68530088574005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>298.2783495769052</v>
+        <v>-326.4378641619568</v>
       </c>
       <c r="B51" t="n">
-        <v>384.9468699026855</v>
+        <v>-76.96343694482135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>311.7582314473883</v>
+        <v>-323.3897565360828</v>
       </c>
       <c r="B52" t="n">
-        <v>387.9803841357611</v>
+        <v>-76.2480057666657</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>325.2143200288415</v>
+        <v>-320.3667421964642</v>
       </c>
       <c r="B53" t="n">
-        <v>391.0086716403517</v>
+        <v>-75.53884672667914</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>338.5815992878833</v>
+        <v>-317.3682550341985</v>
       </c>
       <c r="B54" t="n">
-        <v>394.017132435905</v>
+        <v>-74.8358154421224</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>351.8814751814867</v>
+        <v>-314.3938665246501</v>
       </c>
       <c r="B55" t="n">
-        <v>397.0106118303706</v>
+        <v>-74.1388001975356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>365.1092152333668</v>
+        <v>-311.4429472554723</v>
       </c>
       <c r="B56" t="n">
-        <v>399.9880689493363</v>
+        <v>-73.44764259726168</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>378.2931252314984</v>
+        <v>-308.5150270543519</v>
       </c>
       <c r="B57" t="n">
-        <v>402.955896872698</v>
+        <v>-72.76222196212655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>391.3823628381544</v>
+        <v>-305.6095808211905</v>
       </c>
       <c r="B58" t="n">
-        <v>405.9026685159182</v>
+        <v>-72.08240512792486</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>404.4638888821846</v>
+        <v>-302.7261670028415</v>
       </c>
       <c r="B59" t="n">
-        <v>408.8479783240097</v>
+        <v>-71.4080788463242</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>417.4883883729484</v>
+        <v>-299.8642882772542</v>
       </c>
       <c r="B60" t="n">
-        <v>411.7807382416268</v>
+        <v>-70.73911717235165</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>430.4452814575952</v>
+        <v>-297.023552874672</v>
       </c>
       <c r="B61" t="n">
-        <v>414.6985774251802</v>
+        <v>-70.0754191706099</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>443.368037535669</v>
+        <v>-294.2034663391878</v>
       </c>
       <c r="B62" t="n">
-        <v>417.6090434908904</v>
+        <v>-69.41686023224787</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>456.2556153714562</v>
+        <v>-291.4036158094403</v>
       </c>
       <c r="B63" t="n">
-        <v>420.5119116141069</v>
+        <v>-68.76333512914681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>469.0932889680282</v>
+        <v>-288.6235550218774</v>
       </c>
       <c r="B64" t="n">
-        <v>423.4038723557321</v>
+        <v>-68.11473113959988</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>481.8734972010034</v>
+        <v>-285.8630500535331</v>
       </c>
       <c r="B65" t="n">
-        <v>426.2832277015564</v>
+        <v>-67.47098535404297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>494.6263369798036</v>
+        <v>-283.1215411623515</v>
       </c>
       <c r="B66" t="n">
-        <v>429.1567632678472</v>
+        <v>-66.83195914437471</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>507.3537872530313</v>
+        <v>-280.3986390026483</v>
       </c>
       <c r="B67" t="n">
-        <v>432.0249298485602</v>
+        <v>-66.19755391635204</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>520.0044462268312</v>
+        <v>-277.6941371617658</v>
       </c>
       <c r="B68" t="n">
-        <v>434.876145814869</v>
+        <v>-65.56771393378324</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>-275.0075541243189</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-64.9423196205891</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>-272.338484394289</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-64.32126937795704</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>-269.6867695748307</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-63.70451932290456</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-267.0519993300372</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-63.09196716711904</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-264.4338163452654</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-62.48352319093703</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-261.8319981430888</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-61.87912921479909</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-259.2461383955217</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-61.27868454649564</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-256.6760507869373</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-60.68213978511801</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-254.1213864667565</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-60.08940797523303</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-251.5818683794239</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-59.50041901477061</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-249.057245927596</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-58.91510911018429</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-246.5472308890809</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-58.33340591293057</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-244.0516066628013</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-57.75525383655179</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-241.570039606062</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-57.18057034019421</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-239.1023825496771</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-56.60931622507508</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-236.6483543495127</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-56.0414214107567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-234.2077550314588</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-55.47683474902902</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-231.7802991047905</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-54.91548544844966</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-229.3657969624173</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-54.35732503316098</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-226.9640445136609</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-53.80230180156923</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-224.574812283495</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-53.25035831204241</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-222.1979024155304</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-52.70144455223442</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-219.8330706176699</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-52.15549990800349</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-217.4801736660183</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-51.61248721475977</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-215.139046791744</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-51.07236443405429</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-212.8094410886846</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-50.53507022597535</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-210.4911651424436</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-50.00055662725981</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-208.1841252136948</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-49.46879828899341</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-205.8880809803795</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-48.93973616632303</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-203.6028898586996</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-48.41333383988848</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-201.3283029214607</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-47.88953049013742</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-199.0642394244867</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-47.36830412317909</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-196.8105827898084</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-46.84962456473869</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-194.5670407303696</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-46.33342129255425</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-192.3335574026044</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-45.8196782816737</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-190.1099713964615</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-45.30835529037381</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-187.8961289710775</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-44.79941392113938</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-185.6918382857787</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-44.29280709921676</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-183.4970685697849</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-43.78852483913477</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-181.3115329095316</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-43.28649837114563</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-179.1352415702345</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-42.78672726796282</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-176.9679974729705</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-42.28916353878736</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-174.8096792203643</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-41.79377664314603</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-172.6601269391871</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-41.30052727528357</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-170.5192600292714</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-40.80939438336878</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-168.3869741099735</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-40.3203515131421</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-166.263050167398</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-39.83334598423085</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-164.1474699973631</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-39.3483712242064</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-162.0401096110927</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-38.86539645374057</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-159.9407683014646</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-38.38437337397443</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-157.849501622154</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-37.90531245490524</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-155.7660378928221</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-37.42814924750661</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-153.690327275055</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-36.95287017751855</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-151.6223153488109</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-36.47946065950856</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-149.5618365386318</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-36.00788070878593</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-147.5088253016936</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-35.5381132872111</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-145.4631830171466</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-35.07013382896042</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-143.4248184863647</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-34.60391951025497</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-141.393554442876</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-34.139427870568</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-139.3693855383614</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-33.67665580789117</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-137.3522135223177</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-33.21557901173367</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-135.3419534897601</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-32.75617626275863</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-133.3384886675185</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-32.29841909947748</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-131.3417587279515</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-31.84229199696932</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-129.3516364215353</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-31.38776418005585</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-127.3680769635635</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-30.93482374638984</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-125.3909898608212</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-30.48344838797283</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>-123.4203255929046</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-30.03362518463081</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>-121.4559106237152</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-29.58531294502171</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>-119.4977769653187</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-29.13851742343059</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>-117.5457997653303</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-28.69320860541336</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>-115.5998950387305</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-28.2493658368702</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>-113.6599736377356</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-27.80696731873132</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>-111.7260251815084</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-27.36600924250268</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>-109.7979558278907</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-26.92646879420261</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>-107.8756542540322</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-26.48831920821897</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>-105.9590997678462</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-26.05155440561299</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>-104.0481705470608</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-25.61614528663176</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>-102.1428667991179</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-25.18209058435184</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>-100.2430814375493</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-24.74936461095996</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>-98.34873427686101</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-24.31794783640709</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>-96.45986522978777</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-23.88784810241179</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>-94.57628902031264</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-23.45902199644547</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>-92.69799046871881</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-23.03146486366194</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>-90.82491229469785</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-22.6051624848742</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>-88.95699118829295</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-22.18009929136446</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>-87.09414568144969</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-21.75625560624906</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>-85.23636415797775</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-21.33362766713941</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>-83.3835856042917</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-20.91220049189894</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>-81.53570156079911</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-20.49194833044413</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>-79.69274358004435</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-20.07287729529378</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>-77.85455102338268</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-19.65494981468771</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>-76.02118693869244</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-19.23817919638714</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>-74.19251020002099</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-18.8225323483216</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>-72.36851801645136</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-18.40800764465871</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>-70.54911488240521</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-17.99458240565684</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>-68.73428598205339</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-17.58225230663766</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>-66.92397327324001</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-17.17100321719568</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>-65.11811037591488</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-16.76081913153558</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>-63.31669869807427</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-16.35169945728398</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>-61.51965068746318</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-15.94362341296608</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>-59.72695565488834</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-15.536587688905</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>-57.93848708115813</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-15.13056269272732</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>-56.15428908643821</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-14.72555758875944</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>-54.37428790646583</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-14.32155479226685</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>-52.59843452146027</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-13.91854235193694</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>-50.82666446220648</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-13.5165048262246</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>-49.05900974009717</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-13.11544867904047</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>-47.29531435059459</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-12.71533772974254</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>-45.53566380593256</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-12.31619060436503</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>-43.77991435026485</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-11.91797393255501</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>-42.02808353900934</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-11.52069094820763</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>-40.28008708320017</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-11.12432179975389</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>-38.53592487123404</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-10.72886573743591</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>-36.79555274949729</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-10.33431203603908</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>-35.05891688288987</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-9.940647788662773</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>-33.32600783943126</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-9.547870165736413</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>-31.59675971456577</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-9.155963548848945</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>-29.87115873928072</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-8.764924147737247</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>-28.1491481709296</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-8.374738444567242</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>-26.43073008874255</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-7.985406260802847</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>-24.71580761440755</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-7.59690500851849</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>-23.00437859563307</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-7.209233572252174</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>-21.29640646576576</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-6.822383049753569</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>-19.59188137233872</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-6.436350599088541</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>-17.89077724732661</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-6.051129714477213</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>-16.19302779701719</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-5.666704791519123</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>-14.49858676587798</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-5.283064775050718</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>-12.80747498148239</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-4.900213806855959</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>-11.11961930352645</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-4.51813476323639</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>-9.434995976057373</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-4.136821710714514</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>-7.753587496655517</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-3.756270139532717</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>-6.075330456265664</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-3.376465159109614</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>-4.400256543465079</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-2.997413408837133</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>-2.72829006705072</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-2.619097236060213</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>-1.059418408346618</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-2.241513269703603</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>0.6063838885081412</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-1.864655241609682</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>2.269178035455917</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-1.488508803295645</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>3.928944311127506</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-1.113077922611637</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>5.585747725074544</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.7383474083133592</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>7.239603316642948</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.3643133802753482</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>8.890490992283402</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.009020090310571049</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>10.53851012809069</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.3816759420027438</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>12.18365297404194</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.7536528800760038</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>13.82593409254935</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.124954649435722</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>15.4654289287643</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.49559875212185</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>17.10209421934841</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.865575846249044</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>18.7360181099732</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.234906290187212</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>20.36717887968609</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.603585600072279</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>21.99558982690499</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.971617202842367</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>23.62132887619132</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.339019124098058</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>25.24439983518345</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.70579263174875</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>26.8647936358242</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.071936079480338</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>28.48257830766743</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.437465236053015</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>30.09774012735175</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.802377391766356</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>31.71034625388305</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.166688105111064</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>33.32034873792151</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.530386924088759</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>34.92784383941471</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.89349596878418</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>36.53282141309217</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6.2560133163567</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>38.13528385412253</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6.617939872556803</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>39.73526698611627</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.979284088128964</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>41.33280687981661</v>
+      </c>
+      <c r="B230" t="n">
+        <v>7.340054463496585</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>42.92792638437392</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7.700256507495624</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>44.52060196189885</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8.059885249767433</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>46.11088537888712</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8.418952719599361</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>47.69880687911982</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8.777466080484487</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>49.28436841400632</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9.135426103337949</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>50.86761575145249</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9.492843446464263</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>52.44853364348568</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9.849714988968287</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>54.02714361995978</v>
+      </c>
+      <c r="B238" t="n">
+        <v>10.20604590846526</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>55.60347482050102</v>
+      </c>
+      <c r="B239" t="n">
+        <v>10.56184309543801</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>57.17759355708073</v>
+      </c>
+      <c r="B240" t="n">
+        <v>10.9171218249441</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>58.74940918830666</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11.271861943771</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>60.31902138182681</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.62608624664205</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>61.88645816644282</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11.97980135422699</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>63.45167411619382</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.33299730765935</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>65.01474191726932</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.68569079717975</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>66.57564561735016</v>
+      </c>
+      <c r="B246" t="n">
+        <v>13.03787850739619</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>68.13440878045225</v>
+      </c>
+      <c r="B247" t="n">
+        <v>13.38956603582622</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>69.6910788359515</v>
+      </c>
+      <c r="B248" t="n">
+        <v>13.74076435985378</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>71.24563049303548</v>
+      </c>
+      <c r="B249" t="n">
+        <v>14.09146804652988</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>72.79809214114246</v>
+      </c>
+      <c r="B250" t="n">
+        <v>14.44168377017652</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>74.34853269675284</v>
+      </c>
+      <c r="B251" t="n">
+        <v>14.79142734259869</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>75.89687305322269</v>
+      </c>
+      <c r="B252" t="n">
+        <v>15.1406811814233</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>77.44317441747434</v>
+      </c>
+      <c r="B253" t="n">
+        <v>15.48945935243728</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>78.98747536355661</v>
+      </c>
+      <c r="B254" t="n">
+        <v>15.83777081134374</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>80.52978314030145</v>
+      </c>
+      <c r="B255" t="n">
+        <v>16.18561744458825</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>82.07008657131526</v>
+      </c>
+      <c r="B256" t="n">
+        <v>16.53299698019282</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>83.60843652385505</v>
+      </c>
+      <c r="B257" t="n">
+        <v>16.87992113536848</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>85.14481432007095</v>
+      </c>
+      <c r="B258" t="n">
+        <v>17.2263859399975</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>86.6792540566946</v>
+      </c>
+      <c r="B259" t="n">
+        <v>17.57239932223513</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>88.21174976598056</v>
+      </c>
+      <c r="B260" t="n">
+        <v>17.91796017233943</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>89.74234230929106</v>
+      </c>
+      <c r="B261" t="n">
+        <v>18.26307793691143</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>91.27105584341078</v>
+      </c>
+      <c r="B262" t="n">
+        <v>18.60775829211201</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>92.79786068541681</v>
+      </c>
+      <c r="B263" t="n">
+        <v>18.9519947720743</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>94.32280988145794</v>
+      </c>
+      <c r="B264" t="n">
+        <v>19.29579956057813</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>95.84590733792895</v>
+      </c>
+      <c r="B265" t="n">
+        <v>19.63917375894164</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>97.36716615386523</v>
+      </c>
+      <c r="B266" t="n">
+        <v>19.98212053816542</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>98.88660619013186</v>
+      </c>
+      <c r="B267" t="n">
+        <v>20.32464459061663</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>100.4041908443986</v>
+      </c>
+      <c r="B268" t="n">
+        <v>20.66673787789028</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>101.9200181995044</v>
+      </c>
+      <c r="B269" t="n">
+        <v>21.00842271939268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>103.4340395590319</v>
+      </c>
+      <c r="B270" t="n">
+        <v>21.34968834503348</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>104.9462997094556</v>
+      </c>
+      <c r="B271" t="n">
+        <v>21.69054505419066</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>106.4567654321626</v>
+      </c>
+      <c r="B272" t="n">
+        <v>22.03098556143414</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>107.9655274959209</v>
+      </c>
+      <c r="B273" t="n">
+        <v>22.37103052388284</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>109.4725396948221</v>
+      </c>
+      <c r="B274" t="n">
+        <v>22.71066972383102</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>110.9778428839748</v>
+      </c>
+      <c r="B275" t="n">
+        <v>23.04991256293272</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>112.481426882736</v>
+      </c>
+      <c r="B276" t="n">
+        <v>23.38875693832262</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>113.9833162506153</v>
+      </c>
+      <c r="B277" t="n">
+        <v>23.72720857385195</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>115.4835067910132</v>
+      </c>
+      <c r="B278" t="n">
+        <v>24.06526671062738</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>116.9820423712764</v>
+      </c>
+      <c r="B279" t="n">
+        <v>24.40294141814914</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>118.4789214487223</v>
+      </c>
+      <c r="B280" t="n">
+        <v>24.74023253054986</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>119.9741556511958</v>
+      </c>
+      <c r="B281" t="n">
+        <v>25.0771428475268</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>121.4677211674733</v>
+      </c>
+      <c r="B282" t="n">
+        <v>25.41366718155899</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>122.9596865933426</v>
+      </c>
+      <c r="B283" t="n">
+        <v>25.74982116361451</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>124.4500628346157</v>
+      </c>
+      <c r="B284" t="n">
+        <v>26.08560742335072</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>125.9388133820314</v>
+      </c>
+      <c r="B285" t="n">
+        <v>26.42101790589666</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>127.4259556158454</v>
+      </c>
+      <c r="B286" t="n">
+        <v>26.75605669599065</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>128.9115538231246</v>
+      </c>
+      <c r="B287" t="n">
+        <v>27.09073844323706</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>130.3955714461739</v>
+      </c>
+      <c r="B288" t="n">
+        <v>27.42505507597951</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>131.8780660588919</v>
+      </c>
+      <c r="B289" t="n">
+        <v>27.75901972652861</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>133.3589575203076</v>
+      </c>
+      <c r="B290" t="n">
+        <v>28.09261450189888</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>134.8383343026113</v>
+      </c>
+      <c r="B291" t="n">
+        <v>28.42585949053353</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>136.3162035201171</v>
+      </c>
+      <c r="B292" t="n">
+        <v>28.75875645103338</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>137.792556657461</v>
+      </c>
+      <c r="B293" t="n">
+        <v>29.09130361955306</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>139.2674345785242</v>
+      </c>
+      <c r="B294" t="n">
+        <v>29.42351035291463</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>140.7407829145764</v>
+      </c>
+      <c r="B295" t="n">
+        <v>29.75536455557213</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>142.2126568758241</v>
+      </c>
+      <c r="B296" t="n">
+        <v>30.08687881191798</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>143.6830674171552</v>
+      </c>
+      <c r="B297" t="n">
+        <v>30.41805573608872</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>145.1519927019143</v>
+      </c>
+      <c r="B298" t="n">
+        <v>30.74889055503047</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>146.6194919361461</v>
+      </c>
+      <c r="B299" t="n">
+        <v>31.07939674650294</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>148.085546619055</v>
+      </c>
+      <c r="B300" t="n">
+        <v>31.409570285114</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>149.5501846332671</v>
+      </c>
+      <c r="B301" t="n">
+        <v>31.7394175900173</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>151.0133641466792</v>
+      </c>
+      <c r="B302" t="n">
+        <v>32.06892937847766</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>152.4751844432863</v>
+      </c>
+      <c r="B303" t="n">
+        <v>32.39812814569785</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>153.9355679260738</v>
+      </c>
+      <c r="B304" t="n">
+        <v>32.72699655149398</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>155.3945595427628</v>
+      </c>
+      <c r="B305" t="n">
+        <v>33.05554485099003</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>156.8521712702883</v>
+      </c>
+      <c r="B306" t="n">
+        <v>33.38377587256025</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>158.3084178077997</v>
+      </c>
+      <c r="B307" t="n">
+        <v>33.71169305586182</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>159.76327863224</v>
+      </c>
+      <c r="B308" t="n">
+        <v>34.03929190773104</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>161.2168186642818</v>
+      </c>
+      <c r="B309" t="n">
+        <v>34.3665871731825</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>162.6689727390323</v>
+      </c>
+      <c r="B310" t="n">
+        <v>34.69356430400677</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>164.1198290112361</v>
+      </c>
+      <c r="B311" t="n">
+        <v>35.02024327322928</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>165.5693404940494</v>
+      </c>
+      <c r="B312" t="n">
+        <v>35.34661362299386</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>167.0175297506469</v>
+      </c>
+      <c r="B313" t="n">
+        <v>35.67268055420482</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>168.4644025641936</v>
+      </c>
+      <c r="B314" t="n">
+        <v>35.99844548803955</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>169.9099962334403</v>
+      </c>
+      <c r="B315" t="n">
+        <v>36.32391693982422</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>171.3542697002306</v>
+      </c>
+      <c r="B316" t="n">
+        <v>36.64908578158935</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>172.7972806267801</v>
+      </c>
+      <c r="B317" t="n">
+        <v>36.97396511036482</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>174.2389908081654</v>
+      </c>
+      <c r="B318" t="n">
+        <v>37.29854643804237</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>175.6794477917967</v>
+      </c>
+      <c r="B319" t="n">
+        <v>37.62284058128103</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>177.1186204967807</v>
+      </c>
+      <c r="B320" t="n">
+        <v>37.9468406534007</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>178.5565764023207</v>
+      </c>
+      <c r="B321" t="n">
+        <v>38.27056195516263</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>179.993274746863</v>
+      </c>
+      <c r="B322" t="n">
+        <v>38.59399541791535</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>181.4287464104545</v>
+      </c>
+      <c r="B323" t="n">
+        <v>38.91714810012064</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>182.8629640795829</v>
+      </c>
+      <c r="B324" t="n">
+        <v>39.24001395840313</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>184.2959986904641</v>
+      </c>
+      <c r="B325" t="n">
+        <v>39.5626090656923</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>185.7277670309357</v>
+      </c>
+      <c r="B326" t="n">
+        <v>39.88491479272278</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>187.1583753673679</v>
+      </c>
+      <c r="B327" t="n">
+        <v>40.20695516276749</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>188.5877884088362</v>
+      </c>
+      <c r="B328" t="n">
+        <v>40.52872233173605</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>190.0159886297415</v>
+      </c>
+      <c r="B329" t="n">
+        <v>40.85021245378221</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>191.4430112132299</v>
+      </c>
+      <c r="B330" t="n">
+        <v>41.17143354672419</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>192.8688660645946</v>
+      </c>
+      <c r="B331" t="n">
+        <v>41.49238793696387</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>194.2935752571581</v>
+      </c>
+      <c r="B332" t="n">
+        <v>41.81308068862387</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>195.7170867167969</v>
+      </c>
+      <c r="B333" t="n">
+        <v>42.13350017468969</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>197.1394820490392</v>
+      </c>
+      <c r="B334" t="n">
+        <v>42.45366485716397</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>198.5606845304909</v>
+      </c>
+      <c r="B335" t="n">
+        <v>42.77355755875283</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>199.9808046257346</v>
+      </c>
+      <c r="B336" t="n">
+        <v>43.09320323455941</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>201.39975354914</v>
+      </c>
+      <c r="B337" t="n">
+        <v>43.41258199035576</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>202.8175972722408</v>
+      </c>
+      <c r="B338" t="n">
+        <v>43.73170876410572</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>204.2343303978311</v>
+      </c>
+      <c r="B339" t="n">
+        <v>44.05058242879716</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>205.6499355731291</v>
+      </c>
+      <c r="B340" t="n">
+        <v>44.36919916557858</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>207.0644487333331</v>
+      </c>
+      <c r="B341" t="n">
+        <v>44.68756714835072</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>208.4778669513137</v>
+      </c>
+      <c r="B342" t="n">
+        <v>45.00568580301092</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>209.8901922074906</v>
+      </c>
+      <c r="B343" t="n">
+        <v>45.32355565903899</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>211.301419113613</v>
+      </c>
+      <c r="B344" t="n">
+        <v>45.64117558650301</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>212.7115759872005</v>
+      </c>
+      <c r="B345" t="n">
+        <v>45.95855204050372</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>214.120688536059</v>
+      </c>
+      <c r="B346" t="n">
+        <v>46.27569088764514</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>215.5287104310547</v>
+      </c>
+      <c r="B347" t="n">
+        <v>46.59258178077641</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>216.9357032407744</v>
+      </c>
+      <c r="B348" t="n">
+        <v>46.90923865544667</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>218.3416397740948</v>
+      </c>
+      <c r="B349" t="n">
+        <v>47.22565546990154</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>219.7465149681859</v>
+      </c>
+      <c r="B350" t="n">
+        <v>47.5418311617575</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>221.1503369863402</v>
+      </c>
+      <c r="B351" t="n">
+        <v>47.85776764435894</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>222.5531809344786</v>
+      </c>
+      <c r="B352" t="n">
+        <v>48.17348189570779</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>223.9549327757883</v>
+      </c>
+      <c r="B353" t="n">
+        <v>48.48894832577497</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>225.355704533415</v>
+      </c>
+      <c r="B354" t="n">
+        <v>48.80419221897557</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>226.7554480051116</v>
+      </c>
+      <c r="B355" t="n">
+        <v>49.11920279984741</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>228.1542233131727</v>
+      </c>
+      <c r="B356" t="n">
+        <v>49.43399367043816</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>229.5519735657915</v>
+      </c>
+      <c r="B357" t="n">
+        <v>49.74855209815181</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>230.9486995958008</v>
+      </c>
+      <c r="B358" t="n">
+        <v>50.06287834046026</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>232.3444797114767</v>
+      </c>
+      <c r="B359" t="n">
+        <v>50.37699008934086</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>233.7392453369416</v>
+      </c>
+      <c r="B360" t="n">
+        <v>50.69087198048288</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>235.1330395804392</v>
+      </c>
+      <c r="B361" t="n">
+        <v>51.00453378260354</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>236.5258725630866</v>
+      </c>
+      <c r="B362" t="n">
+        <v>51.31797784002475</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>237.9177456947655</v>
+      </c>
+      <c r="B363" t="n">
+        <v>51.63120453588425</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>239.3086301004923</v>
+      </c>
+      <c r="B364" t="n">
+        <v>51.94420743729358</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>240.6985951989899</v>
+      </c>
+      <c r="B365" t="n">
+        <v>52.25700223046977</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>242.0875872741089</v>
+      </c>
+      <c r="B366" t="n">
+        <v>52.56957689078627</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>243.4756345701119</v>
+      </c>
+      <c r="B367" t="n">
+        <v>52.88193783707965</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>244.8627321974512</v>
+      </c>
+      <c r="B368" t="n">
+        <v>53.19408403109068</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>246.2489206564406</v>
+      </c>
+      <c r="B369" t="n">
+        <v>53.50602464812778</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>247.6341767593766</v>
+      </c>
+      <c r="B370" t="n">
+        <v>53.81775453071572</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>249.018498260351</v>
+      </c>
+      <c r="B371" t="n">
+        <v>54.12927323332838</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>250.4019045637087</v>
+      </c>
+      <c r="B372" t="n">
+        <v>54.44058518175257</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>251.7843990075619</v>
+      </c>
+      <c r="B373" t="n">
+        <v>54.75169118561695</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>253.165981175986</v>
+      </c>
+      <c r="B374" t="n">
+        <v>55.06259120907808</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>254.5466800647672</v>
+      </c>
+      <c r="B375" t="n">
+        <v>55.37329183416449</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>255.926469147133</v>
+      </c>
+      <c r="B376" t="n">
+        <v>55.68378714789662</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>257.3053795619104</v>
+      </c>
+      <c r="B377" t="n">
+        <v>55.99408421318628</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>258.6833946278617</v>
+      </c>
+      <c r="B378" t="n">
+        <v>56.30417933128729</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>260.0605333583654</v>
+      </c>
+      <c r="B379" t="n">
+        <v>56.61407683517663</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>261.4367772654685</v>
+      </c>
+      <c r="B380" t="n">
+        <v>56.92377261825538</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>262.8121629113786</v>
+      </c>
+      <c r="B381" t="n">
+        <v>57.23327496120686</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>264.186679571815</v>
+      </c>
+      <c r="B382" t="n">
+        <v>57.54258150321002</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>265.5603440359852</v>
+      </c>
+      <c r="B383" t="n">
+        <v>57.85169607417188</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>266.9331357987264</v>
+      </c>
+      <c r="B384" t="n">
+        <v>58.16061411104312</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>268.3050716343502</v>
+      </c>
+      <c r="B385" t="n">
+        <v>58.46933943914473</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>269.6761583978834</v>
+      </c>
+      <c r="B386" t="n">
+        <v>58.77787365105581</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>271.0464433391483</v>
+      </c>
+      <c r="B387" t="n">
+        <v>59.0862274287561</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>272.4158385255672</v>
+      </c>
+      <c r="B388" t="n">
+        <v>59.3943810336811</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>273.7844221480493</v>
+      </c>
+      <c r="B389" t="n">
+        <v>59.70235210927643</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>275.152177815603</v>
+      </c>
+      <c r="B390" t="n">
+        <v>60.01013701474409</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>276.5191022807908</v>
+      </c>
+      <c r="B391" t="n">
+        <v>60.31773506639269</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>277.8852082599368</v>
+      </c>
+      <c r="B392" t="n">
+        <v>60.62514917227921</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>279.2504838552421</v>
+      </c>
+      <c r="B393" t="n">
+        <v>60.9323767009985</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>280.6149558146493</v>
+      </c>
+      <c r="B394" t="n">
+        <v>61.23942371703072</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>281.9786493804156</v>
+      </c>
+      <c r="B395" t="n">
+        <v>61.54629594550994</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>283.3415142224677</v>
+      </c>
+      <c r="B396" t="n">
+        <v>61.85298210496848</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>284.7035738703976</v>
+      </c>
+      <c r="B397" t="n">
+        <v>62.15948753405024</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>286.0648569479405</v>
+      </c>
+      <c r="B398" t="n">
+        <v>62.46581871724044</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>287.4253473257928</v>
+      </c>
+      <c r="B399" t="n">
+        <v>62.77197206768574</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>288.7850273392837</v>
+      </c>
+      <c r="B400" t="n">
+        <v>63.07794365247855</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>290.143954175984</v>
+      </c>
+      <c r="B401" t="n">
+        <v>63.38374638236735</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>291.5020966725815</v>
+      </c>
+      <c r="B402" t="n">
+        <v>63.6893732858141</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>292.8594641470942</v>
+      </c>
+      <c r="B403" t="n">
+        <v>63.99482650038152</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>294.2160594729623</v>
+      </c>
+      <c r="B404" t="n">
+        <v>64.3001067129008</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>295.5718784139805</v>
+      </c>
+      <c r="B405" t="n">
+        <v>64.60521300979576</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>296.926962181047</v>
+      </c>
+      <c r="B406" t="n">
+        <v>64.91015470420709</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>298.2812665717829</v>
+      </c>
+      <c r="B407" t="n">
+        <v>65.2149218878111</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>299.6348207993684</v>
+      </c>
+      <c r="B408" t="n">
+        <v>65.51952117290267</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>300.9876257982062</v>
+      </c>
+      <c r="B409" t="n">
+        <v>65.82395280759147</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>302.3397137165547</v>
+      </c>
+      <c r="B410" t="n">
+        <v>66.1282240638385</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>303.6910112169795</v>
+      </c>
+      <c r="B411" t="n">
+        <v>66.43231847482161</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>305.0416211223932</v>
+      </c>
+      <c r="B412" t="n">
+        <v>66.73625921615672</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>306.3914653786805</v>
+      </c>
+      <c r="B413" t="n">
+        <v>67.04002875861707</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>307.7405858072311</v>
+      </c>
+      <c r="B414" t="n">
+        <v>67.34363654925485</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>309.0889847294276</v>
+      </c>
+      <c r="B415" t="n">
+        <v>67.64708314563518</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>310.4366465467706</v>
+      </c>
+      <c r="B416" t="n">
+        <v>67.95036507213831</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>311.7836093959127</v>
+      </c>
+      <c r="B417" t="n">
+        <v>68.25349094544751</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>313.1298528738226</v>
+      </c>
+      <c r="B418" t="n">
+        <v>68.55645620787158</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>314.4753776050559</v>
+      </c>
+      <c r="B419" t="n">
+        <v>68.85926103339665</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>315.8201989075956</v>
+      </c>
+      <c r="B420" t="n">
+        <v>69.16190890230521</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>317.1643170175602</v>
+      </c>
+      <c r="B421" t="n">
+        <v>69.46439990037317</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>318.5077218207132</v>
+      </c>
+      <c r="B422" t="n">
+        <v>69.76673178362097</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>319.8504519295658</v>
+      </c>
+      <c r="B423" t="n">
+        <v>70.06891327359887</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>321.1924730216679</v>
+      </c>
+      <c r="B424" t="n">
+        <v>70.37093667748252</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>322.5338109230235</v>
+      </c>
+      <c r="B425" t="n">
+        <v>70.67280783847394</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>323.8744583729711</v>
+      </c>
+      <c r="B426" t="n">
+        <v>70.97452515320811</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>325.2144255301491</v>
+      </c>
+      <c r="B427" t="n">
+        <v>71.27609093819655</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>326.5537062761811</v>
+      </c>
+      <c r="B428" t="n">
+        <v>71.57750384636287</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>327.8923185418051</v>
+      </c>
+      <c r="B429" t="n">
+        <v>71.87876794265219</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>329.2302487669353</v>
+      </c>
+      <c r="B430" t="n">
+        <v>72.1798802044263</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>330.5675035677568</v>
+      </c>
+      <c r="B431" t="n">
+        <v>72.48084214947588</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>331.9041143110274</v>
+      </c>
+      <c r="B432" t="n">
+        <v>72.78166086565091</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>333.2400552646301</v>
+      </c>
+      <c r="B433" t="n">
+        <v>73.08233058976322</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>334.5753286222472</v>
+      </c>
+      <c r="B434" t="n">
+        <v>73.38285184321882</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>335.9099422678823</v>
+      </c>
+      <c r="B435" t="n">
+        <v>73.68322642776656</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>337.2439194007063</v>
+      </c>
+      <c r="B436" t="n">
+        <v>73.98345959177587</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>338.5772346243517</v>
+      </c>
+      <c r="B437" t="n">
+        <v>74.28354564607537</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>339.9099019803566</v>
+      </c>
+      <c r="B438" t="n">
+        <v>74.5834877772771</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>341.2419311972848</v>
+      </c>
+      <c r="B439" t="n">
+        <v>74.88328820099844</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>342.5733082265317</v>
+      </c>
+      <c r="B440" t="n">
+        <v>75.18294378097821</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>343.9040539358528</v>
+      </c>
+      <c r="B441" t="n">
+        <v>75.48245923930034</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>345.234166788596</v>
+      </c>
+      <c r="B442" t="n">
+        <v>75.78183425514868</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>346.5636595491293</v>
+      </c>
+      <c r="B443" t="n">
+        <v>76.08107172619683</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>347.892514425955</v>
+      </c>
+      <c r="B444" t="n">
+        <v>76.38016767239066</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>349.2207388517365</v>
+      </c>
+      <c r="B445" t="n">
+        <v>76.67912379069935</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>350.5483374970137</v>
+      </c>
+      <c r="B446" t="n">
+        <v>76.97794115610941</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>351.8753087770061</v>
+      </c>
+      <c r="B447" t="n">
+        <v>77.27661943534571</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>353.2016960503993</v>
+      </c>
+      <c r="B448" t="n">
+        <v>77.57516841091024</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>354.5274584301055</v>
+      </c>
+      <c r="B449" t="n">
+        <v>77.87357890266418</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>355.8525969333263</v>
+      </c>
+      <c r="B450" t="n">
+        <v>78.17185116205965</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>357.1771458516343</v>
+      </c>
+      <c r="B451" t="n">
+        <v>78.46999292997748</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>358.5010734614823</v>
+      </c>
+      <c r="B452" t="n">
+        <v>78.76799708776082</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>359.8244029047922</v>
+      </c>
+      <c r="B453" t="n">
+        <v>79.06586886609642</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>361.1471471410366</v>
+      </c>
+      <c r="B454" t="n">
+        <v>79.36361120350907</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>362.4692783786054</v>
+      </c>
+      <c r="B455" t="n">
+        <v>79.66121786537019</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>363.7908256677736</v>
+      </c>
+      <c r="B456" t="n">
+        <v>79.95869541160212</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>365.1117821717629</v>
+      </c>
+      <c r="B457" t="n">
+        <v>80.25604232384541</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>366.4321351380815</v>
+      </c>
+      <c r="B458" t="n">
+        <v>80.55325575176266</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>367.7519108002599</v>
+      </c>
+      <c r="B459" t="n">
+        <v>80.85034162055643</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>369.0710975678163</v>
+      </c>
+      <c r="B460" t="n">
+        <v>81.1472973409241</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>370.3897334000282</v>
+      </c>
+      <c r="B461" t="n">
+        <v>81.44413147724083</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>371.7077671500969</v>
+      </c>
+      <c r="B462" t="n">
+        <v>81.74083253523878</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>373.0252315628563</v>
+      </c>
+      <c r="B463" t="n">
+        <v>82.03740790497852</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>374.3421286919739</v>
+      </c>
+      <c r="B464" t="n">
+        <v>82.3338580674976</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>375.6584684156634</v>
+      </c>
+      <c r="B465" t="n">
+        <v>82.63018526500775</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>376.9742071716234</v>
+      </c>
+      <c r="B466" t="n">
+        <v>82.92637970914026</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>378.2894131874738</v>
+      </c>
+      <c r="B467" t="n">
+        <v>83.22245677700136</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>379.6040515352947</v>
+      </c>
+      <c r="B468" t="n">
+        <v>83.5184086234562</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>380.9181176905869</v>
+      </c>
+      <c r="B469" t="n">
+        <v>83.81423424735686</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>382.2316406673307</v>
+      </c>
+      <c r="B470" t="n">
+        <v>84.10994019762336</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>383.5446101666225</v>
+      </c>
+      <c r="B471" t="n">
+        <v>84.40552417275046</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>384.8570230330863</v>
+      </c>
+      <c r="B472" t="n">
+        <v>84.70098547911743</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>386.1688766582921</v>
+      </c>
+      <c r="B473" t="n">
+        <v>84.99632354596432</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>387.4801987363763</v>
+      </c>
+      <c r="B474" t="n">
+        <v>85.29154462438379</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>388.7909832766467</v>
+      </c>
+      <c r="B475" t="n">
+        <v>85.58664738180244</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>390.1012142213772</v>
+      </c>
+      <c r="B476" t="n">
+        <v>85.88162821889011</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>391.4108954572498</v>
+      </c>
+      <c r="B477" t="n">
+        <v>86.17648802622065</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>392.7200686176944</v>
+      </c>
+      <c r="B478" t="n">
+        <v>86.47123619253279</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>394.028698434007</v>
+      </c>
+      <c r="B479" t="n">
+        <v>86.76586479263835</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>395.3367856003239</v>
+      </c>
+      <c r="B480" t="n">
+        <v>87.06037399770887</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>396.6443486898638</v>
+      </c>
+      <c r="B481" t="n">
+        <v>87.35476800413375</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>397.9513864777717</v>
+      </c>
+      <c r="B482" t="n">
+        <v>87.64904655069222</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>399.2578926962316</v>
+      </c>
+      <c r="B483" t="n">
+        <v>87.94320824049294</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>400.5638904841709</v>
+      </c>
+      <c r="B484" t="n">
+        <v>88.23725829743236</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>401.8693560927958</v>
+      </c>
+      <c r="B485" t="n">
+        <v>88.53119138829697</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>403.1743096275532</v>
+      </c>
+      <c r="B486" t="n">
+        <v>88.82501205362576</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>404.4787488286546</v>
+      </c>
+      <c r="B487" t="n">
+        <v>89.11871979813358</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>405.7826607505644</v>
+      </c>
+      <c r="B488" t="n">
+        <v>89.41231172026113</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>407.0860827167758</v>
+      </c>
+      <c r="B489" t="n">
+        <v>89.70579623698407</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>408.3889843806866</v>
+      </c>
+      <c r="B490" t="n">
+        <v>89.99916652826323</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>409.6913818010879</v>
+      </c>
+      <c r="B491" t="n">
+        <v>90.29242622269254</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>410.9932678391293</v>
+      </c>
+      <c r="B492" t="n">
+        <v>90.58557372533323</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>412.2946613102295</v>
+      </c>
+      <c r="B493" t="n">
+        <v>90.87861328522533</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>413.5955520055352</v>
+      </c>
+      <c r="B494" t="n">
+        <v>91.17154261577684</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>414.8959501447378</v>
+      </c>
+      <c r="B495" t="n">
+        <v>91.46436403019027</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>416.1958413466415</v>
+      </c>
+      <c r="B496" t="n">
+        <v>91.75707430189345</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>417.4952370860487</v>
+      </c>
+      <c r="B497" t="n">
+        <v>92.04967602634321</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>418.7941510995175</v>
+      </c>
+      <c r="B498" t="n">
+        <v>92.34217230822554</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>420.0925673356025</v>
+      </c>
+      <c r="B499" t="n">
+        <v>92.63455954423867</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>421.3905148251221</v>
+      </c>
+      <c r="B500" t="n">
+        <v>92.92684428286543</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>422.6879531994903</v>
+      </c>
+      <c r="B501" t="n">
+        <v>93.2190174443792</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>423.9849175188643</v>
+      </c>
+      <c r="B502" t="n">
+        <v>93.51108693472577</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>425.2814134227238</v>
+      </c>
+      <c r="B503" t="n">
+        <v>93.80305403451368</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>426.5774107677748</v>
+      </c>
+      <c r="B504" t="n">
+        <v>94.09491196591739</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>427.8729392763129</v>
+      </c>
+      <c r="B505" t="n">
+        <v>94.3866674325559</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>429.1679820554912</v>
+      </c>
+      <c r="B506" t="n">
+        <v>94.67831664016765</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>430.4625653899879</v>
+      </c>
+      <c r="B507" t="n">
+        <v>94.96986551807066</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>431.7566819669152</v>
+      </c>
+      <c r="B508" t="n">
+        <v>95.2613124291417</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>433.0503164174287</v>
+      </c>
+      <c r="B509" t="n">
+        <v>95.55265392170693</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>434.3434965407311</v>
+      </c>
+      <c r="B510" t="n">
+        <v>95.84389626587279</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>435.6362006774542</v>
+      </c>
+      <c r="B511" t="n">
+        <v>96.1350345928995</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>436.9284564163534</v>
+      </c>
+      <c r="B512" t="n">
+        <v>96.42607512533715</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>438.2202264881266</v>
+      </c>
+      <c r="B513" t="n">
+        <v>96.71700947833384</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>439.5115414836054</v>
+      </c>
+      <c r="B514" t="n">
+        <v>97.0078445503124</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>440.8024097879386</v>
+      </c>
+      <c r="B515" t="n">
+        <v>97.29858223850073</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>442.0928146999813</v>
+      </c>
+      <c r="B516" t="n">
+        <v>97.58921878985637</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>443.3827789760269</v>
+      </c>
+      <c r="B517" t="n">
+        <v>97.87975933811373</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>444.6722794315401</v>
+      </c>
+      <c r="B518" t="n">
+        <v>98.17019866958231</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>445.9613292212996</v>
+      </c>
+      <c r="B519" t="n">
+        <v>98.46053975516523</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>447.2499414106802</v>
+      </c>
+      <c r="B520" t="n">
+        <v>98.750785545604</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>448.538082464743</v>
+      </c>
+      <c r="B521" t="n">
+        <v>99.04092849522917</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>449.8258113878524</v>
+      </c>
+      <c r="B522" t="n">
+        <v>99.33098190192965</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>451.1130918191117</v>
+      </c>
+      <c r="B523" t="n">
+        <v>99.62093758321174</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>452.3999136656512</v>
+      </c>
+      <c r="B524" t="n">
+        <v>99.91079327294617</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>453.6862900007445</v>
+      </c>
+      <c r="B525" t="n">
+        <v>100.2005519229957</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>454.9722499282541</v>
+      </c>
+      <c r="B526" t="n">
+        <v>100.4902200961911</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>456.2577554965608</v>
+      </c>
+      <c r="B527" t="n">
+        <v>100.7797892507128</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>457.5428398938772</v>
+      </c>
+      <c r="B528" t="n">
+        <v>101.0692668692255</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>458.8274882938199</v>
+      </c>
+      <c r="B529" t="n">
+        <v>101.3586496186578</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>460.1117005461131</v>
+      </c>
+      <c r="B530" t="n">
+        <v>101.6479374716713</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>461.3954975949812</v>
+      </c>
+      <c r="B531" t="n">
+        <v>101.9371351527161</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>462.6788552173429</v>
+      </c>
+      <c r="B532" t="n">
+        <v>102.2262372114204</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>463.9617992855589</v>
+      </c>
+      <c r="B533" t="n">
+        <v>102.5152494822207</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>465.2443019516681</v>
+      </c>
+      <c r="B534" t="n">
+        <v>102.8041656977542</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>466.5263925275001</v>
+      </c>
+      <c r="B535" t="n">
+        <v>103.0929924671454</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>467.8080764389845</v>
+      </c>
+      <c r="B536" t="n">
+        <v>103.3817310186319</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>469.0893248677309</v>
+      </c>
+      <c r="B537" t="n">
+        <v>103.6703748656576</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>470.3701551915959</v>
+      </c>
+      <c r="B538" t="n">
+        <v>103.9589279286542</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>471.6505750351134</v>
+      </c>
+      <c r="B539" t="n">
+        <v>104.2473919307816</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>472.9305678045135</v>
+      </c>
+      <c r="B540" t="n">
+        <v>104.5357631389466</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>474.2101701871694</v>
+      </c>
+      <c r="B541" t="n">
+        <v>104.8240498237405</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>475.4893515611472</v>
+      </c>
+      <c r="B542" t="n">
+        <v>105.1122450913702</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>476.7681150021557</v>
+      </c>
+      <c r="B543" t="n">
+        <v>105.4003496396888</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>478.0464876312802</v>
+      </c>
+      <c r="B544" t="n">
+        <v>105.6883695839621</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>479.3244355741066</v>
+      </c>
+      <c r="B545" t="n">
+        <v>105.9762972969683</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>480.6019874266426</v>
+      </c>
+      <c r="B546" t="n">
+        <v>106.2641392261314</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>481.8791470266285</v>
+      </c>
+      <c r="B547" t="n">
+        <v>106.5518962407419</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>483.1558943058495</v>
+      </c>
+      <c r="B548" t="n">
+        <v>106.8395638236598</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>484.4322395509105</v>
+      </c>
+      <c r="B549" t="n">
+        <v>107.1271442968636</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>485.7081801004796</v>
+      </c>
+      <c r="B550" t="n">
+        <v>107.4146370649005</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>486.9837363351004</v>
+      </c>
+      <c r="B551" t="n">
+        <v>107.7020467240226</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>488.2588951010789</v>
+      </c>
+      <c r="B552" t="n">
+        <v>107.9893703144826</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>489.5336562524473</v>
+      </c>
+      <c r="B553" t="n">
+        <v>108.276607807278</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>490.8080374411433</v>
+      </c>
+      <c r="B554" t="n">
+        <v>108.5637631837044</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>492.0820068682069</v>
+      </c>
+      <c r="B555" t="n">
+        <v>108.8508292822009</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>493.3556045309592</v>
+      </c>
+      <c r="B556" t="n">
+        <v>109.1378151190426</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>494.6287975984133</v>
+      </c>
+      <c r="B557" t="n">
+        <v>109.4247132997832</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>495.9016222623983</v>
+      </c>
+      <c r="B558" t="n">
+        <v>109.7115319832224</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>497.1740606215664</v>
+      </c>
+      <c r="B559" t="n">
+        <v>109.9982671388545</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>498.4461033800574</v>
+      </c>
+      <c r="B560" t="n">
+        <v>110.2849166750918</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>499.7177671261913</v>
+      </c>
+      <c r="B561" t="n">
+        <v>110.5714843331366</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>500.9890559516218</v>
+      </c>
+      <c r="B562" t="n">
+        <v>110.857971038112</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>502.2599698657364</v>
+      </c>
+      <c r="B563" t="n">
+        <v>111.1443767951212</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>503.5304756710343</v>
+      </c>
+      <c r="B564" t="n">
+        <v>111.430694125715</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>504.800636286132</v>
+      </c>
+      <c r="B565" t="n">
+        <v>111.7169372118095</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>506.07041463629</v>
+      </c>
+      <c r="B566" t="n">
+        <v>112.0030977010256</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>507.3398086071531</v>
+      </c>
+      <c r="B567" t="n">
+        <v>112.2891751193776</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>508.6088374587365</v>
+      </c>
+      <c r="B568" t="n">
+        <v>112.5751738098888</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>509.8774959837501</v>
+      </c>
+      <c r="B569" t="n">
+        <v>112.861092601446</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>511.1457878811744</v>
+      </c>
+      <c r="B570" t="n">
+        <v>113.1469323300323</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>512.4137140015997</v>
+      </c>
+      <c r="B571" t="n">
+        <v>113.4326931896118</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>513.6812633563201</v>
+      </c>
+      <c r="B572" t="n">
+        <v>113.7183727057123</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>514.9484508246956</v>
+      </c>
+      <c r="B573" t="n">
+        <v>114.0039742338817</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>516.2152701418636</v>
+      </c>
+      <c r="B574" t="n">
+        <v>114.2894963641208</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>517.48172607683</v>
+      </c>
+      <c r="B575" t="n">
+        <v>114.5749401731823</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>518.7478287702613</v>
+      </c>
+      <c r="B576" t="n">
+        <v>114.8603079485109</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>520.0135583214179</v>
+      </c>
+      <c r="B577" t="n">
+        <v>115.145595206394</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>521.2789504639829</v>
+      </c>
+      <c r="B578" t="n">
+        <v>115.4308100026788</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>522.543957086125</v>
+      </c>
+      <c r="B579" t="n">
+        <v>115.7159414946972</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>523.8086177882564</v>
+      </c>
+      <c r="B580" t="n">
+        <v>116.0009986097903</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>525.072923158961</v>
+      </c>
+      <c r="B581" t="n">
+        <v>116.2859792280857</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>526.3368793363252</v>
+      </c>
+      <c r="B582" t="n">
+        <v>116.570884734518</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_80.xlsx
+++ b/Phase_distribution_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,282 +440,138 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-499.5579185847094</v>
+        <v>-409.8017416462444</v>
       </c>
       <c r="B2" t="n">
-        <v>-553.9360210830287</v>
+        <v>-529.4950294068274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-422.775569243486</v>
+        <v>-299.9771098537376</v>
       </c>
       <c r="B3" t="n">
-        <v>-535.4351952669396</v>
+        <v>-503.5727698408327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-361.3480169787305</v>
+        <v>-214.8498429659494</v>
       </c>
       <c r="B4" t="n">
-        <v>-520.8348179922092</v>
+        <v>-483.812940884937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-309.3398084246314</v>
+        <v>-142.8404221329019</v>
       </c>
       <c r="B5" t="n">
-        <v>-508.6044717536384</v>
+        <v>-467.2775617162167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-263.6536280119157</v>
+        <v>-78.8636054427202</v>
       </c>
       <c r="B6" t="n">
-        <v>-497.9514673765707</v>
+        <v>-452.6916457557847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-222.4802069744931</v>
+        <v>-20.24911567568273</v>
       </c>
       <c r="B7" t="n">
-        <v>-488.4158344738556</v>
+        <v>-439.3924802853804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-184.6752001818878</v>
+        <v>34.57059100326809</v>
       </c>
       <c r="B8" t="n">
-        <v>-479.7084071155288</v>
+        <v>-426.9944869777443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-149.4705469153246</v>
+        <v>86.58885582996362</v>
       </c>
       <c r="B9" t="n">
-        <v>-471.6361949292329</v>
+        <v>-415.2552718095986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-116.326754273522</v>
+        <v>136.4705680601647</v>
       </c>
       <c r="B10" t="n">
-        <v>-464.0643514660229</v>
+        <v>-404.0137595849461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-84.85091194007759</v>
+        <v>184.6797209652547</v>
       </c>
       <c r="B11" t="n">
-        <v>-456.8951539687572</v>
+        <v>-393.1582975876381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-54.74856261542606</v>
+        <v>231.5509384404663</v>
       </c>
       <c r="B12" t="n">
-        <v>-450.055704156098</v>
+        <v>-382.6088781991294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-25.79365365828346</v>
+        <v>277.3317785924383</v>
       </c>
       <c r="B13" t="n">
-        <v>-443.4902826187586</v>
+        <v>-372.3066757350266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2.191087394439322</v>
+        <v>322.209608050206</v>
       </c>
       <c r="B14" t="n">
-        <v>-437.1553784517114</v>
+        <v>-362.2074417896602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29.34653040735187</v>
+        <v>366.3287651220534</v>
       </c>
       <c r="B15" t="n">
-        <v>-431.0165449599031</v>
+        <v>-352.2772999699382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>55.78685946136867</v>
+        <v>409.8022275632035</v>
       </c>
       <c r="B16" t="n">
-        <v>-425.0459711818879</v>
+        <v>-342.4899014874767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>81.60533401442687</v>
+        <v>452.7196912703856</v>
       </c>
       <c r="B17" t="n">
-        <v>-419.2210207362037</v>
+        <v>-332.8244634297997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>106.8791798598909</v>
+        <v>495.1532508711954</v>
       </c>
       <c r="B18" t="n">
-        <v>-413.5230146526238</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>131.6729254913087</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-407.936397375139</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>156.0408996157325</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-402.4481140076407</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>180.029176479293</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-397.0471275283645</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>203.6772919999119</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-391.7239987682814</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>227.0191285299016</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-386.4706616053933</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>250.0840277987801</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-381.2801526668586</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>272.8975408200071</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-376.1464271517274</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>295.4818914584294</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-371.0642423852897</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>317.8567075108016</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-366.0289836854586</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>340.0391985959875</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-361.0366166417277</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>362.044610598142</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-356.083578656125</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>383.8865149981777</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-351.166708804478</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>405.576945522042</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-346.2832129879559</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>427.126662963648</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-341.4306009664799</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>448.5453603930355</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-336.6066373860469</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>469.8416756315536</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-331.8093366818862</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>491.0234542628098</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-327.036901938839</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>512.0977600191286</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-322.2877209568844</v>
+        <v>-323.2643935625607</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_80.xlsx
+++ b/Phase_distribution_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,138 +440,162 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-409.8017416462444</v>
+        <v>-581.0752275067952</v>
       </c>
       <c r="B2" t="n">
-        <v>-529.4950294068274</v>
+        <v>-571.0445665845083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-299.9771098537376</v>
+        <v>-409.8017416462444</v>
       </c>
       <c r="B3" t="n">
-        <v>-503.5727698408327</v>
+        <v>-529.4950294068274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-214.8498429659494</v>
+        <v>-299.9771098537376</v>
       </c>
       <c r="B4" t="n">
-        <v>-483.812940884937</v>
+        <v>-503.5727698408327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-142.8404221329019</v>
+        <v>-214.8498429659494</v>
       </c>
       <c r="B5" t="n">
-        <v>-467.2775617162167</v>
+        <v>-483.812940884937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-78.8636054427202</v>
+        <v>-142.8404221329019</v>
       </c>
       <c r="B6" t="n">
-        <v>-452.6916457557847</v>
+        <v>-467.2775617162167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-20.24911567568273</v>
+        <v>-78.8636054427202</v>
       </c>
       <c r="B7" t="n">
-        <v>-439.3924802853804</v>
+        <v>-452.6916457557847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34.57059100326809</v>
+        <v>-20.24911567568273</v>
       </c>
       <c r="B8" t="n">
-        <v>-426.9944869777443</v>
+        <v>-439.3924802853804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>86.58885582996362</v>
+        <v>34.57059100326809</v>
       </c>
       <c r="B9" t="n">
-        <v>-415.2552718095986</v>
+        <v>-426.9944869777443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>136.4705680601647</v>
+        <v>86.58885582996362</v>
       </c>
       <c r="B10" t="n">
-        <v>-404.0137595849461</v>
+        <v>-415.2552718095986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>184.6797209652547</v>
+        <v>136.4705680601647</v>
       </c>
       <c r="B11" t="n">
-        <v>-393.1582975876381</v>
+        <v>-404.0137595849461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>231.5509384404663</v>
+        <v>184.6797209652547</v>
       </c>
       <c r="B12" t="n">
-        <v>-382.6088781991294</v>
+        <v>-393.1582975876381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>277.3317785924383</v>
+        <v>231.5509384404663</v>
       </c>
       <c r="B13" t="n">
-        <v>-372.3066757350266</v>
+        <v>-382.6088781991294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>322.209608050206</v>
+        <v>277.3317785924383</v>
       </c>
       <c r="B14" t="n">
-        <v>-362.2074417896602</v>
+        <v>-372.3066757350266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>366.3287651220534</v>
+        <v>322.209608050206</v>
       </c>
       <c r="B15" t="n">
-        <v>-352.2772999699382</v>
+        <v>-362.2074417896602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>409.8022275632035</v>
+        <v>366.3287651220534</v>
       </c>
       <c r="B16" t="n">
-        <v>-342.4899014874767</v>
+        <v>-352.2772999699382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>452.7196912703856</v>
+        <v>409.8022275632035</v>
       </c>
       <c r="B17" t="n">
-        <v>-332.8244634297997</v>
+        <v>-342.4899014874767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>452.7196912703856</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-332.8244634297997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>495.1532508711954</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>-323.2643935625607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>537.16149053607</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-313.7963030687208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>578.7924866790967</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-305.9288606414241</v>
       </c>
     </row>
   </sheetData>
